--- a/attached_assets/Portal Data_1759325555331.xlsx
+++ b/attached_assets/Portal Data_1759325555331.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PortalData\github-pages-deployment\attached_assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariani\Documents\GitHub\AIDCPortalv2\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707DACC-C738-4D2C-AB4C-AC8648FE92FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5EC8D-5BC2-4E2F-BEA5-6D13F1F89C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2639777D-20F4-4D24-B69C-48F511BBFBEE}"/>
+    <workbookView xWindow="-38510" yWindow="-10870" windowWidth="38620" windowHeight="21100" xr2:uid="{2639777D-20F4-4D24-B69C-48F511BBFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9419" uniqueCount="4129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9420" uniqueCount="4130">
   <si>
     <t>Category</t>
   </si>
@@ -12426,6 +12426,9 @@
   </si>
   <si>
     <t>NaaS (L3 / SDN / SD-WAN)</t>
+  </si>
+  <si>
+    <t>Test remote data</t>
   </si>
 </sst>
 </file>
@@ -12961,7 +12964,7 @@
   <dimension ref="A1:Y706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14197,6 +14200,9 @@
       </c>
       <c r="G18" t="s">
         <v>4016</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4129</v>
       </c>
       <c r="I18" s="6">
         <v>15771008</v>

--- a/attached_assets/Portal Data_1759325555331.xlsx
+++ b/attached_assets/Portal Data_1759325555331.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariani\Documents\GitHub\AIDCPortalv2\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4307A853-608C-4C5B-9D2A-C08A911F97F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48155DFF-5187-4E9F-88CC-EF4AD539142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37530" yWindow="-5130" windowWidth="28800" windowHeight="15450" xr2:uid="{2639777D-20F4-4D24-B69C-48F511BBFBEE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7793" uniqueCount="3284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="3284">
   <si>
     <t>HQ Country</t>
   </si>
